--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="78">
   <si>
     <t xml:space="preserve">Taxon</t>
   </si>
@@ -258,6 +258,15 @@
     <t xml:space="preserve">Fraction of the biomass of protists that is photosynthetic</t>
   </si>
   <si>
+    <t xml:space="preserve">Total biomass of marine primary producers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total biomass of marine consumers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Rhizaria out of total biomass of protists</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fraction of the total marine photoautotrophic biomass that is in protists</t>
   </si>
   <si>
@@ -300,13 +309,7 @@
     <t xml:space="preserve">Fraction of particle-attached biomass out of the total marine biomass</t>
   </si>
   <si>
-    <t xml:space="preserve">~5%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fraction of benthic biomass out of the total marine biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">≈5%</t>
   </si>
 </sst>
 </file>
@@ -320,7 +323,7 @@
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -370,23 +373,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFCE181E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -479,7 +467,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -544,20 +532,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -575,66 +559,6 @@
     <cellStyle name="Pivot Table Title" xfId="24"/>
     <cellStyle name="Pivot Table Value" xfId="25"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCE181E"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -649,8 +573,8 @@
   </sheetPr>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1104,7 +1028,7 @@
         <v>0.557122428832401</v>
       </c>
       <c r="H17" s="9" t="n">
-        <v>6.98860528498851</v>
+        <v>7.06347187268011</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>14</v>
@@ -1156,7 +1080,7 @@
         <v>0.463432323847017</v>
       </c>
       <c r="H19" s="14" t="n">
-        <v>1.17200412919032</v>
+        <v>7.9568008191463</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>14</v>
@@ -1277,7 +1201,7 @@
         <v>24</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0.100268269558972</v>
+        <v>0.100268274742562</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>14</v>
@@ -1300,7 +1224,7 @@
         <v>24</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0.0623237438979773</v>
+        <v>0.0623237455089588</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>14</v>
@@ -1352,7 +1276,7 @@
         <v>0.0342858944535774</v>
       </c>
       <c r="H27" s="15" t="n">
-        <v>2.50154532616406</v>
+        <v>2.52661809652434</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>14</v>
@@ -1382,8 +1306,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1415,7 +1339,7 @@
       </c>
       <c r="B2" s="6" t="n">
         <f aca="false">SUM(Data!G6,Data!G4,Data!G7,Data!G9:G22)/SUM(Data!G2:G26)</f>
-        <v>0.791444658283587</v>
+        <v>0.791444657455453</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0.8</v>
@@ -1427,7 +1351,7 @@
       </c>
       <c r="B3" s="6" t="n">
         <f aca="false">SUM(Data!G2:G6,Data!G22)/SUM(Data!G2:G26)</f>
-        <v>0.18678826113932</v>
+        <v>0.186788260943873</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0.2</v>
@@ -1445,64 +1369,64 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="16" t="n">
+      <c r="B5" s="17" t="n">
+        <f aca="false">SUM(Data!G2:G6,Data!G22)</f>
+        <v>1.2129195302962</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="17" t="n">
+        <f aca="false">SUM(Data!G7:G21,Data!G23:G27)</f>
+        <v>5.31491967509408</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="10" t="n">
+        <f aca="false">Data!G19/SUM(Data!G18:G23)</f>
+        <v>0.262036050089681</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="6" t="n">
         <f aca="false">SUM(Data!G6,Data!G22)/SUM(Data!G2:G6,Data!G22)</f>
         <v>0.425696490112181</v>
       </c>
-      <c r="C5" s="17" t="n">
+      <c r="C8" s="6" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="16" t="n">
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="6" t="n">
         <f aca="false">SUM(Data!G2,Data!G3,Data!G5)/SUM(Data!G2:G6,Data!G22)</f>
         <v>0.413965170728954</v>
       </c>
-      <c r="C6" s="17" t="n">
+      <c r="C9" s="6" t="n">
         <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="16" t="n">
-        <f aca="false">Data!G4/SUM(Data!G2:G6,Data!G22)</f>
-        <v>0.160338339158865</v>
-      </c>
-      <c r="C7" s="17" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="6" t="n">
-        <f aca="false">SUM(Data!G4:G6)/SUM(Data!G2:G6,Data!G22)</f>
-        <v>0.498964977077546</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="6" t="n">
-        <f aca="false">SUM(Data!G4:G6)/SUM(Data!G2:G6,Data!G22)</f>
-        <v>0.498964977077546</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1510,93 +1434,129 @@
         <v>65</v>
       </c>
       <c r="B10" s="6" t="n">
-        <f aca="false">(2.4E+028*0.000000000000011/1000000000000000)/SUM(Data!G7,Data!G4)</f>
-        <v>0.173523062532293</v>
-      </c>
-      <c r="C10" s="1" t="n">
+        <f aca="false">Data!G4/SUM(Data!G2:G6,Data!G22)</f>
+        <v>0.160338339158865</v>
+      </c>
+      <c r="C10" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="D10" s="18" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="B11" s="6" t="n">
+        <f aca="false">SUM(Data!G4:G6)/SUM(Data!G2:G6,Data!G22)</f>
+        <v>0.498964977077546</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="19" t="n">
+      <c r="B12" s="6" t="n">
+        <f aca="false">SUM(Data!G4:G6)/SUM(Data!G2:G6,Data!G22)</f>
+        <v>0.498964977077546</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <f aca="false">0.16/SUM(Data!G7,Data!G4)</f>
+        <v>0.105165492443814</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="10" t="n">
         <f aca="false">Data!G4/(Data!G4+Data!G7)</f>
         <v>0.127827014840321</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C14" s="1" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="10" t="n">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="10" t="n">
         <f aca="false">SUM(Data!G4:G8,Data!G18:G21,Data!G23:G27)/SUM(Data!G2:G27)</f>
-        <v>0.633088204437894</v>
-      </c>
-      <c r="C12" s="10" t="n">
+        <v>0.633088204819798</v>
+      </c>
+      <c r="C15" s="10" t="n">
         <f aca="false">2/3</f>
         <v>0.666666666666667</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="10" t="n">
-        <f aca="false">SUM(Data!G4:G12,Data!G18:G20,Data!G23:G25,Data!G27)/SUM(Data!G2:G27)</f>
-        <v>0.761950512880206</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="6" t="n">
-        <f aca="false">SUM(Data!G14:G15,Data!G17)/SUM(Data!G2:G26)</f>
-        <v>0.0941820307291983</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="10" t="n">
-        <f aca="false">SUM(Data!G21,Data!G26)/SUM(Data!G2:G26)</f>
-        <v>0.0417394851530448</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="10" t="n">
+        <f aca="false">SUM(Data!G4:G12,Data!G18:G20,Data!G23:G25,Data!G27)/SUM(Data!G2:G27)</f>
+        <v>0.761950513127983</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="6" t="n">
+        <f aca="false">SUM(Data!G14:G15,Data!G17)/SUM(Data!G2:G26)</f>
+        <v>0.0941820306306503</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="10" t="n">
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="10" t="n">
+        <f aca="false">SUM(Data!G21,Data!G26)/SUM(Data!G2:G26)</f>
+        <v>0.0417394851093704</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="10" t="n">
         <f aca="false">SUM(Data!G2,Data!G13,Data!G16)/SUM(Data!G2:G22)</f>
         <v>0.042416077121329</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>76</v>
+      <c r="C19" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" display="Based on Wang et al. (https://doi.org/10.1002/lol2.10103)"/>
+    <hyperlink ref="D13" r:id="rId1" display="Based on Wang et al. (https://doi.org/10.1002/lol2.10103)"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -303,7 +303,7 @@
     <t xml:space="preserve">Fraction of nektonic biomass out of the total marine biomass</t>
   </si>
   <si>
-    <t xml:space="preserve">~10%</t>
+    <t xml:space="preserve">few percent</t>
   </si>
   <si>
     <t xml:space="preserve">Fraction of particle-attached biomass out of the total marine biomass</t>
@@ -467,7 +467,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -488,6 +488,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -504,10 +508,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -524,11 +524,23 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -573,8 +585,8 @@
   </sheetPr>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -686,11 +698,11 @@
       <c r="G4" s="4" t="n">
         <v>0.194477503021042</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
@@ -711,7 +723,7 @@
       <c r="G5" s="4" t="n">
         <v>0.103380528301973</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="6" t="n">
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -760,10 +772,10 @@
       <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="8" t="n">
         <v>1.32693409580242</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="9" t="n">
         <v>1.81122948632623</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -789,7 +801,7 @@
       <c r="G8" s="4" t="n">
         <v>0.331733523950604</v>
       </c>
-      <c r="H8" s="9" t="n">
+      <c r="H8" s="5" t="n">
         <v>2.68803432424406</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -815,7 +827,7 @@
       <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>0.56451</v>
       </c>
       <c r="H9" s="1" t="n">
@@ -841,7 +853,7 @@
       <c r="F10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="7" t="n">
         <v>0.375738322381426</v>
       </c>
       <c r="H10" s="1" t="n">
@@ -974,7 +986,7 @@
       <c r="G15" s="12" t="n">
         <v>0.004453608</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="1" t="s">
         <v>25</v>
       </c>
@@ -998,7 +1010,7 @@
       <c r="G16" s="13" t="n">
         <v>0.014</v>
       </c>
-      <c r="H16" s="9" t="n">
+      <c r="H16" s="5" t="n">
         <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1027,7 +1039,7 @@
       <c r="G17" s="4" t="n">
         <v>0.557122428832401</v>
       </c>
-      <c r="H17" s="9" t="n">
+      <c r="H17" s="5" t="n">
         <v>7.06347187268011</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -1079,7 +1091,7 @@
       <c r="G19" s="14" t="n">
         <v>0.463432323847017</v>
       </c>
-      <c r="H19" s="14" t="n">
+      <c r="H19" s="15" t="n">
         <v>7.9568008191463</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -1125,7 +1137,7 @@
       <c r="F21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="10" t="n">
         <v>0.158682529504531</v>
       </c>
       <c r="H21" s="1" t="n">
@@ -1151,7 +1163,7 @@
       <c r="F22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="7" t="n">
         <v>0.208989252527472</v>
       </c>
       <c r="H22" s="5" t="n">
@@ -1177,7 +1189,7 @@
       <c r="F23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G23" s="7" t="n">
         <v>0.245478208227793</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -1200,7 +1212,7 @@
       <c r="F24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="7" t="n">
         <v>0.100268274742562</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -1223,7 +1235,7 @@
       <c r="F25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="1" t="n">
+      <c r="G25" s="10" t="n">
         <v>0.0623237455089588</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -1246,10 +1258,10 @@
       <c r="F26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="15" t="n">
+      <c r="G26" s="8" t="n">
         <v>0.112355042224214</v>
       </c>
-      <c r="H26" s="15" t="n">
+      <c r="H26" s="16" t="n">
         <v>10</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -1272,10 +1284,10 @@
       <c r="F27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="15" t="n">
+      <c r="G27" s="17" t="n">
         <v>0.0342858944535774</v>
       </c>
-      <c r="H27" s="15" t="n">
+      <c r="H27" s="18" t="n">
         <v>2.52661809652434</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -1306,8 +1318,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1319,25 +1331,25 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="1" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+    <row r="1" s="16" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="7" t="n">
         <f aca="false">SUM(Data!G6,Data!G4,Data!G7,Data!G9:G22)/SUM(Data!G2:G26)</f>
         <v>0.791444657455453</v>
       </c>
@@ -1349,7 +1361,7 @@
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="7" t="n">
         <f aca="false">SUM(Data!G2:G6,Data!G22)/SUM(Data!G2:G26)</f>
         <v>0.186788260943873</v>
       </c>
@@ -1358,10 +1370,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="7" t="n">
         <f aca="false">SUM(Data!G6,Data!G22)/SUM(Data!G6,Data!G18:G22)</f>
         <v>0.282081161827475</v>
       </c>
@@ -1370,10 +1382,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="17" t="n">
+      <c r="B5" s="20" t="n">
         <f aca="false">SUM(Data!G2:G6,Data!G22)</f>
         <v>1.2129195302962</v>
       </c>
@@ -1382,10 +1394,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="17" t="n">
+      <c r="B6" s="20" t="n">
         <f aca="false">SUM(Data!G7:G21,Data!G23:G27)</f>
         <v>5.31491967509408</v>
       </c>
@@ -1406,38 +1418,38 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="7" t="n">
         <f aca="false">SUM(Data!G6,Data!G22)/SUM(Data!G2:G6,Data!G22)</f>
         <v>0.425696490112181</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="7" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="7" t="n">
         <f aca="false">SUM(Data!G2,Data!G3,Data!G5)/SUM(Data!G2:G6,Data!G22)</f>
         <v>0.413965170728954</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="7" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="6" t="n">
+      <c r="B10" s="7" t="n">
         <f aca="false">Data!G4/SUM(Data!G2:G6,Data!G22)</f>
         <v>0.160338339158865</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="7" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1445,11 +1457,11 @@
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="6" t="n">
+      <c r="B11" s="7" t="n">
         <f aca="false">SUM(Data!G4:G6)/SUM(Data!G2:G6,Data!G22)</f>
         <v>0.498964977077546</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="7" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1457,31 +1469,31 @@
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B12" s="7" t="n">
         <f aca="false">SUM(Data!G4:G6)/SUM(Data!G2:G6,Data!G22)</f>
         <v>0.498964977077546</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="7" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="6" t="n">
+      <c r="B13" s="7" t="n">
         <f aca="false">0.16/SUM(Data!G7,Data!G4)</f>
         <v>0.105165492443814</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="7" t="n">
         <v>0.1</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="21" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="10" t="n">
@@ -1493,7 +1505,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>71</v>
       </c>
       <c r="B15" s="10" t="n">
@@ -1506,7 +1518,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="10" t="n">
@@ -1518,10 +1530,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="6" t="n">
+      <c r="B17" s="7" t="n">
         <f aca="false">SUM(Data!G14:G15,Data!G17)/SUM(Data!G2:G26)</f>
         <v>0.0941820306306503</v>
       </c>
@@ -1530,7 +1542,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B18" s="10" t="n">
@@ -1542,7 +1554,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B19" s="10" t="n">
